--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadahari\Desktop\Harika\C\Demoblaze\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF6B795-7D89-4229-97E3-90CD6A95F7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6F101-7DC9-4AA2-929B-D967897D82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1800" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{C530B214-C532-48CA-9507-3FBA420147F2}"/>
+    <workbookView xWindow="6540" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{C530B214-C532-48CA-9507-3FBA420147F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
   <si>
     <t>validPass123</t>
   </si>
@@ -223,10 +223,13 @@
     <t>ValidPass@23</t>
   </si>
   <si>
-    <t>Validuser223</t>
-  </si>
-  <si>
     <t>MultipleAdd</t>
+  </si>
+  <si>
+    <t>Validuser45</t>
+  </si>
+  <si>
+    <t>ValidPass@45</t>
   </si>
 </sst>
 </file>
@@ -285,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,6 +316,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BB8137-2EE2-4733-BA03-EA3CA42D19B0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,10 +661,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -938,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB0BA2A-7A13-430D-A737-AC7B0C214942}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7">
         <v>2</v>

--- a/src/main/resources/testdata.xlsx
+++ b/src/main/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kadahari\Desktop\Harika\C\Demoblaze\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D6F101-7DC9-4AA2-929B-D967897D82CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1B1049-30D4-42EE-A2D9-C5F184B6F3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6540" yWindow="2145" windowWidth="21600" windowHeight="11295" xr2:uid="{C530B214-C532-48CA-9507-3FBA420147F2}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Search" sheetId="2" r:id="rId3"/>
     <sheet name="Cart" sheetId="3" r:id="rId4"/>
     <sheet name="Checkout" sheetId="4" r:id="rId5"/>
+    <sheet name="Contact" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>validPass123</t>
   </si>
@@ -226,10 +227,67 @@
     <t>MultipleAdd</t>
   </si>
   <si>
-    <t>Validuser45</t>
-  </si>
-  <si>
-    <t>ValidPass@45</t>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Expected Alert Message</t>
+  </si>
+  <si>
+    <t>guest@demo.com</t>
+  </si>
+  <si>
+    <t>invalid-email</t>
+  </si>
+  <si>
+    <t>All fields required</t>
+  </si>
+  <si>
+    <t>Invalid email format</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>message1</t>
+  </si>
+  <si>
+    <t>message2</t>
+  </si>
+  <si>
+    <t>message3</t>
+  </si>
+  <si>
+    <t>Email required</t>
+  </si>
+  <si>
+    <t>invalid email</t>
+  </si>
+  <si>
+    <t>missing email</t>
+  </si>
+  <si>
+    <t>empty fields</t>
+  </si>
+  <si>
+    <t>Thanks for the message!!</t>
+  </si>
+  <si>
+    <t>Validuser35</t>
+  </si>
+  <si>
+    <t>ValidPass@35</t>
   </si>
 </sst>
 </file>
@@ -634,7 +692,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,10 +719,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>14</v>
@@ -1202,4 +1260,104 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BAD5DF-90AA-4AB4-BBD9-8C04B087A716}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>